--- a/planilha_geradora_do_dav.xlsx
+++ b/planilha_geradora_do_dav.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E06E98-2E58-4DE3-9C5A-ED82DE2BDD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24445FC9-5807-467F-9A57-0AB709C547D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10368" yWindow="1992" windowWidth="15360" windowHeight="8880" xr2:uid="{B9080B13-05B5-4FB9-AFA8-3F77C430D455}"/>
+    <workbookView xWindow="6240" yWindow="2064" windowWidth="23040" windowHeight="8880" xr2:uid="{B9080B13-05B5-4FB9-AFA8-3F77C430D455}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="3" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Código</t>
   </si>
@@ -80,16 +80,7 @@
     <t>Cenoura inteira, produzida em fibra de vidro</t>
   </si>
   <si>
-    <t>PFG03PGLL</t>
-  </si>
-  <si>
-    <t>Ovo de páscoa na cor lilás com patinhas brancas, produzido em fibra de vidro</t>
-  </si>
-  <si>
-    <t>PFG03BMRS</t>
-  </si>
-  <si>
-    <t>Ovo de páscoa na cor rosa com bolinhas brancas, produzido em fibra de vidro</t>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -39591,103 +39582,96 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CFABF0-0BF6-4509-B999-61E2BE6D3AB1}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="255.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1008</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="1">
         <v>16455</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1015</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="D3" s="1">
         <v>10392.824000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1009</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="D4" s="1">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1020</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="D5" s="1">
         <v>997.09324000000026</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>1585.8960000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>679.88700000000006</v>
       </c>
     </row>
   </sheetData>
